--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2302453.762904563</v>
+        <v>-2304451.435917409</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>72.51871871941849</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>51.7322465951818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>14.48345164522457</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>17.09300973225714</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>362.4829536744947</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>9.461970681989245</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>169.0167291702126</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>160.8783715448855</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>102.6185512581019</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>234.4970761400737</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>99.66075074687578</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>48.37466424891429</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1822,13 +1822,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>130.7675922068285</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>127.4321567831319</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>33.92757820193509</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>127.4321567831319</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G25" t="n">
         <v>98.3616783337369</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463234</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415187</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2530,7 +2530,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V25" t="n">
         <v>184.0057531941873</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I28" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415232</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S28" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539629</v>
       </c>
       <c r="T28" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U28" t="n">
-        <v>218.1054622689375</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
         <v>184.0057531941873</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3004,7 +3004,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689361</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463131</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,7 +3241,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689372</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415187</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3715,7 +3715,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689372</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3952,7 +3952,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689361</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -4183,13 +4183,13 @@
         <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T46" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1278.657628994267</v>
+        <v>1056.889695563554</v>
       </c>
       <c r="C2" t="n">
-        <v>1278.657628994267</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D2" t="n">
-        <v>920.3919303875161</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E2" t="n">
-        <v>534.603677789272</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F2" t="n">
-        <v>534.603677789272</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.512263598976</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y2" t="n">
-        <v>1665.257469058388</v>
+        <v>1443.489535627676</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
         <v>266.206002764199</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4513,25 +4513,25 @@
         <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>323.2572191628418</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>823.3126770315976</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
         <v>806.0470106353782</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.912517095719</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>1209.912517095719</v>
+        <v>1550.100961840373</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,13 +4647,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>224.6669506791651</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="V7" t="n">
-        <v>224.6669506791651</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="W7" t="n">
-        <v>224.6669506791651</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>63.50052796378793</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.4755035807</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2303.439508261991</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2049.677722900083</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>1718.614835556512</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1718.614835556512</v>
+        <v>1613.857161318065</v>
       </c>
       <c r="X8" t="n">
-        <v>1718.614835556512</v>
+        <v>1613.857161318065</v>
       </c>
       <c r="Y8" t="n">
-        <v>1328.4755035807</v>
+        <v>1223.717829342253</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4966,43 +4966,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>290.8087152951864</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>290.8087152951864</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5024,16 +5024,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5130,7 +5130,7 @@
         <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1517.99338900868</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O12" t="n">
         <v>1797.533454227377</v>
@@ -5258,37 +5258,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5367,10 +5367,10 @@
         <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.725741678162</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P15" t="n">
         <v>2317.834075963124</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1450.052973336777</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1250.132963252329</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1026.347548041835</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>737.2189092553931</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>737.2189092553931</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="17">
@@ -5495,25 +5495,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514088</v>
@@ -5522,16 +5522,16 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>696.2714843595161</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3353014316092</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>377.2186620192734</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>229.3055684368803</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>229.3055684368803</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>835.416391538794</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>877.9199491897558</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,40 +5735,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5841,7 +5841,7 @@
         <v>841.8631140141288</v>
       </c>
       <c r="N21" t="n">
-        <v>1517.99338900868</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O21" t="n">
         <v>1797.533454227377</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1464.645989545847</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1464.645989545847</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1464.645989545847</v>
       </c>
       <c r="U22" t="n">
-        <v>964.1357418247858</v>
+        <v>1464.645989545847</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>1209.96150133996</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>920.5443313029991</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>692.5547804049818</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,40 +5999,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,28 +6054,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141293</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N24" t="n">
         <v>1171.725741678162</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108339</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229681</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506735</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083215</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504522</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G25" t="n">
-        <v>221.5295092103139</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H25" t="n">
-        <v>139.9315917982983</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K25" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M25" t="n">
         <v>1048.866260860496</v>
@@ -6160,37 +6160,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O25" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P25" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q25" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R25" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S25" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T25" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U25" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
         <v>1304.027639859417</v>
       </c>
       <c r="W25" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045215</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010325</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,16 +6291,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256434</v>
@@ -6315,7 +6315,7 @@
         <v>841.8631140141288</v>
       </c>
       <c r="N27" t="n">
-        <v>1171.725741678162</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O27" t="n">
         <v>1797.533454227377</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108327</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C28" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D28" t="n">
         <v>478.0475988506724</v>
@@ -6370,7 +6370,7 @@
         <v>398.9545963083204</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G28" t="n">
         <v>221.5295092103129</v>
@@ -6379,31 +6379,31 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M28" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N28" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O28" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P28" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6421,13 +6421,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,19 +6537,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>841.8631140141288</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N30" t="n">
         <v>1171.725741678162</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222968</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506733</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
         <v>709.8489468649691</v>
@@ -6652,19 +6652,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,22 +6683,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514082</v>
@@ -6707,43 +6707,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,31 +6765,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>841.8631140141288</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
-        <v>1171.725741678162</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O33" t="n">
         <v>1797.533454227377</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6883,7 +6883,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,16 +7002,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256434</v>
@@ -7023,10 +7023,10 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.130761344647</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N36" t="n">
-        <v>1517.99338900868</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O36" t="n">
         <v>1797.533454227377</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N39" t="n">
         <v>1171.725741678162</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7315,10 +7315,10 @@
         <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,13 +7351,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7400,10 +7400,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028562</v>
@@ -7503,7 +7503,7 @@
         <v>1171.725741678162</v>
       </c>
       <c r="O42" t="n">
-        <v>1841.189502980821</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7567,7 +7567,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,19 +7722,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N45" t="n">
         <v>1517.99338900868</v>
@@ -7801,13 +7801,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050818</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8778,10 +8778,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>349.7653003338571</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9015,13 +9015,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>349.7653003338571</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>188.8856946302408</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9489,10 +9489,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>349.7653003338571</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>349.765300333856</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928318</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9963,10 +9963,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="O27" t="n">
-        <v>349.7653003338571</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>349.7653003338571</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10437,10 +10437,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="O33" t="n">
-        <v>349.7653003338571</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10671,13 +10671,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>349.765300333857</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>349.7653003338568</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -10923,7 +10923,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P42" t="n">
-        <v>274.3657496970648</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>349.7653003338569</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292.7541730515891</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>196.0916683564723</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22705,13 +22705,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>174.5374359006679</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>61.58968815487851</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>35.72597625654905</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,22 +23938,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>158.8051956154454</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>76.03677420185771</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>124.7054865406961</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-9.114931159858293e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,13 +26384,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.51210371267</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99193.63377422311</v>
+        <v>99193.63377422316</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26424,37 +26424,37 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="F4" t="n">
         <v>7916.731656007485</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="J4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="K4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732803</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732802</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26488,28 +26488,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="J5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="K5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="L5" t="n">
-        <v>97715.10582002538</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002538</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-772020.591052177</v>
+        <v>-772234.0030420556</v>
       </c>
       <c r="C6" t="n">
         <v>-230776.1267793303</v>
@@ -26528,16 +26528,16 @@
         <v>-230776.1267793303</v>
       </c>
       <c r="E6" t="n">
-        <v>-625064.0940816201</v>
+        <v>-625161.5532075923</v>
       </c>
       <c r="F6" t="n">
-        <v>-99904.0576047241</v>
+        <v>-100001.5167306963</v>
       </c>
       <c r="G6" t="n">
-        <v>-99904.0576047241</v>
+        <v>-100001.5167306963</v>
       </c>
       <c r="H6" t="n">
-        <v>-99904.0576047241</v>
+        <v>-100001.5167306963</v>
       </c>
       <c r="I6" t="n">
         <v>-182556.1368210659</v>
@@ -26546,22 +26546,22 @@
         <v>-304473.8439099463</v>
       </c>
       <c r="K6" t="n">
+        <v>-128050.6247173535</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-128050.6247173533</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-262851.6399511905</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-182556.1368210659</v>
+      </c>
+      <c r="O6" t="n">
         <v>-128050.6247173534</v>
       </c>
-      <c r="L6" t="n">
-        <v>-128050.6247173534</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-262851.6399511906</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-182556.1368210661</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>-128050.6247173533</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-128050.6247173534</v>
       </c>
     </row>
   </sheetData>
@@ -26704,25 +26704,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="J2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964069</v>
-      </c>
-      <c r="J2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="K2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="L2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26756,7 +26756,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,7 +26765,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27045,7 +27045,7 @@
         <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>210.7843773852391</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>334.5056920608718</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>125.3564241629037</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>271.7984225967531</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>51.17221948836922</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>348.1798820387504</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>23.75498498155889</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>139.1535023362231</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>56.69292621882451</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>55.56994881277231</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>246.6224174593111</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>52.02592219651729</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>118.923902605219</v>
       </c>
     </row>
     <row r="11">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730084</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35498,10 +35498,10 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>682.9598737318699</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
         <v>528.689756130333</v>
@@ -35735,13 +35735,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>632.1290025749652</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>395.9791095617654</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.689756130333</v>
@@ -36209,10 +36209,10 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>682.9598737318699</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>632.1290025749643</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520626</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K25" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L25" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M25" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N25" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P25" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36683,10 +36683,10 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>682.9598737318699</v>
       </c>
       <c r="O27" t="n">
-        <v>632.1290025749652</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36768,7 +36768,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36923,7 +36923,7 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>632.1290025749652</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37005,7 +37005,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
@@ -37154,13 +37154,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>682.9598737318697</v>
       </c>
       <c r="O33" t="n">
-        <v>632.1290025749652</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37169,7 +37169,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37391,13 +37391,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>660.1896773843232</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37634,7 +37634,7 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>632.1290025749649</v>
+        <v>642.8663885318339</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37643,7 +37643,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37871,10 +37871,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P42" t="n">
-        <v>481.4591646285895</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38105,7 +38105,7 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>682.9598737318697</v>
+        <v>682.9598737318699</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
